--- a/python/jupyter/Sample.xlsx
+++ b/python/jupyter/Sample.xlsx
@@ -364,14 +364,85 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0.30000000000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0.6000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0.7000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -382,14 +453,85 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0.30000000000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0.6000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0.7000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -400,14 +542,85 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0.30000000000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0.6000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0.7000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -418,14 +631,85 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0.30000000000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0.6000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0.7000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -436,14 +720,85 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0.30000000000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0.6000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0.7000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -454,14 +809,85 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0.30000000000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0.6000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0.7000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -472,14 +898,85 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0.30000000000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0.6000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0.7000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -490,14 +987,85 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0.30000000000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0.6000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0.7000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -508,14 +1076,85 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0.30000000000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0.6000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0.7000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -526,14 +1165,85 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0.30000000000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0.6000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0.7000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -544,14 +1254,85 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0.30000000000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0.6000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0.7000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -562,14 +1343,85 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0.30000000000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0.6000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0.7000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -580,14 +1432,85 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0.30000000000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0.6000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0.7000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -598,14 +1521,85 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0.30000000000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0.6000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0.7000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -616,14 +1610,85 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0.30000000000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0.6000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0.7000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -634,14 +1699,85 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0.30000000000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0.6000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0.7000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -652,14 +1788,85 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0.30000000000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0.6000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0.7000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -670,14 +1877,85 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0.30000000000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0.6000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0.7000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -688,14 +1966,85 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0.30000000000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0.6000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0.7000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -706,14 +2055,85 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0.30000000000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0.6000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0.7000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/python/jupyter/Sample.xlsx
+++ b/python/jupyter/Sample.xlsx
@@ -39,7 +39,6 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet29" sheetId="30" state="visible" r:id="rId30"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet30" sheetId="31" state="visible" r:id="rId31"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet31" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet32" sheetId="33" state="visible" r:id="rId33"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1047,24 +1046,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/python/jupyter/Sample.xlsx
+++ b/python/jupyter/Sample.xlsx
@@ -38,7 +38,6 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet28" sheetId="29" state="visible" r:id="rId29"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet29" sheetId="30" state="visible" r:id="rId30"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet30" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet31" sheetId="32" state="visible" r:id="rId32"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1020,32 +1019,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/python/jupyter/Sample.xlsx
+++ b/python/jupyter/Sample.xlsx
@@ -384,10 +384,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -410,10 +408,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -436,10 +432,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -462,10 +456,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -488,10 +480,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -514,10 +504,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -540,10 +528,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -566,10 +552,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -592,10 +576,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -618,10 +600,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -644,10 +624,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -670,10 +648,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -696,10 +672,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -722,10 +696,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -748,10 +720,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -774,10 +744,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -800,10 +768,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -826,10 +792,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -852,10 +816,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -878,10 +840,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -904,10 +864,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -930,10 +888,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -956,10 +912,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -982,10 +936,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1008,10 +960,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1034,10 +984,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1060,10 +1008,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1086,10 +1032,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1112,10 +1056,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1138,10 +1080,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1164,10 +1104,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/python/jupyter/Sample.xlsx
+++ b/python/jupyter/Sample.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -27,17 +27,6 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet17" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet18" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet19" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet20" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet21" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet22" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet23" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet24" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet25" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet26" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet27" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet28" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet29" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet30" sheetId="31" state="visible" r:id="rId31"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -74,15 +63,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -375,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -384,12 +373,77 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>0</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0.30000000000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0.6000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0.7000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -399,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -408,12 +462,77 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>0</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0.30000000000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0.6000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0.7000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -423,7 +542,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,12 +551,77 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>0</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0.30000000000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0.6000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0.7000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -447,7 +631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,12 +640,77 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>0</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0.30000000000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0.6000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0.7000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -471,7 +720,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,12 +729,77 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>0</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0.30000000000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0.6000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0.7000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -495,7 +809,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,12 +818,77 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>0</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0.30000000000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0.6000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0.7000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -519,7 +898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,12 +907,77 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>0</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0.30000000000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0.6000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0.7000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -543,7 +987,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,12 +996,77 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>0</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0.30000000000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0.6000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0.7000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -567,7 +1076,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,12 +1085,77 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>0</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0.30000000000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0.6000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0.7000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -591,7 +1165,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,12 +1174,77 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>0</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0.30000000000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0.6000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0.7000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -615,7 +1254,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -624,12 +1263,77 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>0</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0.30000000000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0.6000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0.7000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -639,7 +1343,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -648,12 +1352,77 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>0</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0.30000000000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0.6000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0.7000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -663,7 +1432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -672,22 +1441,87 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>0</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0.30000000000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0.6000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0.7000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -696,22 +1530,87 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>0</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0.30000000000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0.6000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0.7000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -720,22 +1619,87 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>0</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0.30000000000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0.6000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0.7000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -744,22 +1708,87 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>0</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0.30000000000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0.6000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0.7000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -768,22 +1797,87 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>0</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0.30000000000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0.6000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0.7000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -792,22 +1886,87 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>0</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0.30000000000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0.6000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0.7000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -816,22 +1975,87 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>0</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0.30000000000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0.6000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0.7000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -840,275 +2064,76 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>0</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0.30000000000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0.6000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0.7000000000000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>